--- a/clinical_data/totaldata.xlsx
+++ b/clinical_data/totaldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21180" windowHeight="9160"/>
+    <workbookView windowWidth="21180" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>DemoChildA</t>
   </si>
   <si>
-    <t>BAP</t>
+    <t>DD</t>
   </si>
   <si>
     <t>male</t>
@@ -1236,8 +1236,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
